--- a/DB_homicidios.xlsx
+++ b/DB_homicidios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesusalvarezcastellanos/Desktop/IF/Sexto semestre/Simulación de Procesos Financieros/Proyecto_SimulaciondeProcesosFinancieros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D143F192-4EAE-A249-8AE8-DE52B754F0E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E5FB95-C277-3241-BA4C-7E2706F1ED0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>No especificado</t>
   </si>
@@ -29,42 +29,6 @@
   </si>
   <si>
     <t>Mujer</t>
-  </si>
-  <si>
-    <t>marzo</t>
-  </si>
-  <si>
-    <t>abril</t>
-  </si>
-  <si>
-    <t>mayo</t>
-  </si>
-  <si>
-    <t>junio</t>
-  </si>
-  <si>
-    <t>julio</t>
-  </si>
-  <si>
-    <t>agosto</t>
-  </si>
-  <si>
-    <t>septiembre</t>
-  </si>
-  <si>
-    <t>octubre</t>
-  </si>
-  <si>
-    <t>noviembre</t>
-  </si>
-  <si>
-    <t>diciembre</t>
-  </si>
-  <si>
-    <t>enero</t>
-  </si>
-  <si>
-    <t>febrero</t>
   </si>
   <si>
     <t>Hombre Menor de edad</t>
@@ -452,8 +416,8 @@
   </sheetPr>
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -473,55 +437,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="U1" s="16" t="s">
         <v>0</v>
@@ -2862,8 +2826,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
+      <c r="A38" s="21">
+        <v>41275</v>
       </c>
       <c r="B38" s="5">
         <v>1749</v>
@@ -2927,8 +2891,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
+      <c r="A39" s="21">
+        <v>41306</v>
       </c>
       <c r="B39" s="5">
         <v>1490</v>
@@ -2992,8 +2956,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
+      <c r="A40" s="21">
+        <v>41334</v>
       </c>
       <c r="B40" s="5">
         <v>1842</v>
@@ -3057,8 +3021,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
+      <c r="A41" s="21">
+        <v>41365</v>
       </c>
       <c r="B41" s="5">
         <v>1822</v>
@@ -3122,8 +3086,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
+      <c r="A42" s="21">
+        <v>41395</v>
       </c>
       <c r="B42" s="5">
         <v>1742</v>
@@ -3187,8 +3151,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
+      <c r="A43" s="21">
+        <v>41426</v>
       </c>
       <c r="B43" s="5">
         <v>1638</v>
@@ -3252,8 +3216,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
+      <c r="A44" s="21">
+        <v>41456</v>
       </c>
       <c r="B44" s="5">
         <v>1636</v>
@@ -3317,8 +3281,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>8</v>
+      <c r="A45" s="21">
+        <v>41487</v>
       </c>
       <c r="B45" s="5">
         <v>1680</v>
@@ -3382,8 +3346,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
+      <c r="A46" s="21">
+        <v>41518</v>
       </c>
       <c r="B46" s="5">
         <v>1616</v>
@@ -3447,8 +3411,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
+      <c r="A47" s="21">
+        <v>41548</v>
       </c>
       <c r="B47" s="5">
         <v>1657</v>
@@ -3512,8 +3476,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>11</v>
+      <c r="A48" s="21">
+        <v>41579</v>
       </c>
       <c r="B48" s="5">
         <v>1544</v>
@@ -3577,8 +3541,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>12</v>
+      <c r="A49" s="21">
+        <v>41609</v>
       </c>
       <c r="B49" s="5">
         <v>1784</v>
@@ -3642,8 +3606,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>13</v>
+      <c r="A50" s="21">
+        <v>41640</v>
       </c>
       <c r="B50" s="5">
         <v>1525</v>
@@ -3707,8 +3671,8 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>14</v>
+      <c r="A51" s="21">
+        <v>41671</v>
       </c>
       <c r="B51" s="5">
         <v>1402</v>
@@ -3772,8 +3736,8 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
+      <c r="A52" s="21">
+        <v>41699</v>
       </c>
       <c r="B52" s="5">
         <v>1572</v>
@@ -3837,8 +3801,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>4</v>
+      <c r="A53" s="21">
+        <v>41730</v>
       </c>
       <c r="B53" s="5">
         <v>1463</v>
@@ -3902,8 +3866,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>5</v>
+      <c r="A54" s="21">
+        <v>41760</v>
       </c>
       <c r="B54" s="5">
         <v>1565</v>
@@ -3967,8 +3931,8 @@
       </c>
     </row>
     <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
+      <c r="A55" s="21">
+        <v>41791</v>
       </c>
       <c r="B55" s="5">
         <v>1347</v>
@@ -4032,8 +3996,8 @@
       </c>
     </row>
     <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>7</v>
+      <c r="A56" s="21">
+        <v>41821</v>
       </c>
       <c r="B56" s="5">
         <v>1363</v>
@@ -4097,8 +4061,8 @@
       </c>
     </row>
     <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
+      <c r="A57" s="21">
+        <v>41852</v>
       </c>
       <c r="B57" s="5">
         <v>1389</v>
@@ -4162,8 +4126,8 @@
       </c>
     </row>
     <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
+      <c r="A58" s="21">
+        <v>41883</v>
       </c>
       <c r="B58" s="5">
         <v>1349</v>
@@ -4227,8 +4191,8 @@
       </c>
     </row>
     <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>10</v>
+      <c r="A59" s="21">
+        <v>41913</v>
       </c>
       <c r="B59" s="5">
         <v>1439</v>
@@ -4292,8 +4256,8 @@
       </c>
     </row>
     <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>11</v>
+      <c r="A60" s="21">
+        <v>41944</v>
       </c>
       <c r="B60" s="5">
         <v>1391</v>
@@ -4354,8 +4318,8 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>12</v>
+      <c r="A61" s="21">
+        <v>41974</v>
       </c>
       <c r="B61" s="5">
         <v>1566</v>
@@ -4419,8 +4383,8 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>13</v>
+      <c r="A62" s="21">
+        <v>42005</v>
       </c>
       <c r="B62" s="5">
         <v>1419</v>
@@ -4484,8 +4448,8 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>14</v>
+      <c r="A63" s="21">
+        <v>42036</v>
       </c>
       <c r="B63" s="5">
         <v>1277</v>
@@ -4549,8 +4513,8 @@
       </c>
     </row>
     <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
+      <c r="A64" s="21">
+        <v>42064</v>
       </c>
       <c r="B64" s="5">
         <v>1392</v>
@@ -4614,8 +4578,8 @@
       </c>
     </row>
     <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>4</v>
+      <c r="A65" s="21">
+        <v>42095</v>
       </c>
       <c r="B65" s="5">
         <v>1515</v>
@@ -4679,8 +4643,8 @@
       </c>
     </row>
     <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>5</v>
+      <c r="A66" s="21">
+        <v>42125</v>
       </c>
       <c r="B66" s="5">
         <v>1631</v>
@@ -4744,8 +4708,8 @@
       </c>
     </row>
     <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>6</v>
+      <c r="A67" s="21">
+        <v>42156</v>
       </c>
       <c r="B67" s="5">
         <v>1495</v>
@@ -4809,8 +4773,8 @@
       </c>
     </row>
     <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>7</v>
+      <c r="A68" s="21">
+        <v>42186</v>
       </c>
       <c r="B68" s="5">
         <v>1556</v>
@@ -4874,8 +4838,8 @@
       </c>
     </row>
     <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>8</v>
+      <c r="A69" s="21">
+        <v>42217</v>
       </c>
       <c r="B69" s="5">
         <v>1620</v>
@@ -4939,8 +4903,8 @@
       </c>
     </row>
     <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>9</v>
+      <c r="A70" s="21">
+        <v>42248</v>
       </c>
       <c r="B70" s="5">
         <v>1506</v>
@@ -5004,8 +4968,8 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>10</v>
+      <c r="A71" s="21">
+        <v>42278</v>
       </c>
       <c r="B71" s="5">
         <v>1494</v>
@@ -5069,8 +5033,8 @@
       </c>
     </row>
     <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>11</v>
+      <c r="A72" s="21">
+        <v>42309</v>
       </c>
       <c r="B72" s="5">
         <v>1568</v>
@@ -5134,8 +5098,8 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>12</v>
+      <c r="A73" s="21">
+        <v>42339</v>
       </c>
       <c r="B73" s="5">
         <v>1665</v>
@@ -5199,8 +5163,8 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>13</v>
+      <c r="A74" s="21">
+        <v>42370</v>
       </c>
       <c r="B74" s="5">
         <v>1537</v>
@@ -5264,8 +5228,8 @@
       </c>
     </row>
     <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>14</v>
+      <c r="A75" s="21">
+        <v>42401</v>
       </c>
       <c r="B75" s="5">
         <v>1485</v>
@@ -5329,8 +5293,8 @@
       </c>
     </row>
     <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
+      <c r="A76" s="21">
+        <v>42430</v>
       </c>
       <c r="B76" s="5">
         <v>1530</v>
@@ -5394,8 +5358,8 @@
       </c>
     </row>
     <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>4</v>
+      <c r="A77" s="21">
+        <v>42461</v>
       </c>
       <c r="B77" s="5">
         <v>1662</v>
@@ -5459,8 +5423,8 @@
       </c>
     </row>
     <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>5</v>
+      <c r="A78" s="21">
+        <v>42491</v>
       </c>
       <c r="B78" s="5">
         <v>1819</v>
@@ -5524,8 +5488,8 @@
       </c>
     </row>
     <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>6</v>
+      <c r="A79" s="21">
+        <v>42522</v>
       </c>
       <c r="B79" s="5">
         <v>1710</v>
@@ -5589,8 +5553,8 @@
       </c>
     </row>
     <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>7</v>
+      <c r="A80" s="21">
+        <v>42552</v>
       </c>
       <c r="B80" s="5">
         <v>2009</v>
@@ -5654,8 +5618,8 @@
       </c>
     </row>
     <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
+      <c r="A81" s="21">
+        <v>42583</v>
       </c>
       <c r="B81" s="5">
         <v>1978</v>
@@ -5719,8 +5683,8 @@
       </c>
     </row>
     <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>9</v>
+      <c r="A82" s="21">
+        <v>42614</v>
       </c>
       <c r="B82" s="5">
         <v>2041</v>
@@ -5784,8 +5748,8 @@
       </c>
     </row>
     <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>10</v>
+      <c r="A83" s="21">
+        <v>42644</v>
       </c>
       <c r="B83" s="5">
         <v>1926</v>
@@ -5849,8 +5813,8 @@
       </c>
     </row>
     <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>11</v>
+      <c r="A84" s="21">
+        <v>42675</v>
       </c>
       <c r="B84" s="5">
         <v>1904</v>
@@ -5914,8 +5878,8 @@
       </c>
     </row>
     <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>12</v>
+      <c r="A85" s="21">
+        <v>42705</v>
       </c>
       <c r="B85" s="5">
         <v>1957</v>
@@ -5979,8 +5943,8 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>13</v>
+      <c r="A86" s="21">
+        <v>42736</v>
       </c>
       <c r="B86" s="5">
         <v>2199</v>
@@ -6042,8 +6006,8 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>14</v>
+      <c r="A87" s="21">
+        <v>42767</v>
       </c>
       <c r="B87" s="5">
         <v>2022</v>
@@ -6102,8 +6066,8 @@
       </c>
     </row>
     <row r="88" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>3</v>
+      <c r="A88" s="21">
+        <v>42795</v>
       </c>
       <c r="B88" s="5">
         <v>2197</v>
@@ -6165,8 +6129,8 @@
       </c>
     </row>
     <row r="89" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>4</v>
+      <c r="A89" s="21">
+        <v>42826</v>
       </c>
       <c r="B89" s="5">
         <v>2199</v>
@@ -6228,8 +6192,8 @@
       </c>
     </row>
     <row r="90" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
+      <c r="A90" s="21">
+        <v>42856</v>
       </c>
       <c r="B90" s="5">
         <v>2431</v>
@@ -6291,8 +6255,8 @@
       </c>
     </row>
     <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>6</v>
+      <c r="A91" s="21">
+        <v>42887</v>
       </c>
       <c r="B91" s="5">
         <v>2548</v>
@@ -6354,8 +6318,8 @@
       </c>
     </row>
     <row r="92" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>7</v>
+      <c r="A92" s="21">
+        <v>42917</v>
       </c>
       <c r="B92" s="5">
         <v>2371</v>
@@ -6419,8 +6383,8 @@
       </c>
     </row>
     <row r="93" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
+      <c r="A93" s="21">
+        <v>42948</v>
       </c>
       <c r="B93" s="5">
         <v>2306</v>
@@ -6482,8 +6446,8 @@
       </c>
     </row>
     <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>9</v>
+      <c r="A94" s="21">
+        <v>42979</v>
       </c>
       <c r="B94" s="5">
         <v>2509</v>
@@ -6547,8 +6511,8 @@
       </c>
     </row>
     <row r="95" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>10</v>
+      <c r="A95" s="21">
+        <v>43009</v>
       </c>
       <c r="B95" s="5">
         <v>2651</v>
@@ -6610,8 +6574,8 @@
       </c>
     </row>
     <row r="96" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>11</v>
+      <c r="A96" s="21">
+        <v>43040</v>
       </c>
       <c r="B96" s="5">
         <v>2451</v>
@@ -6673,8 +6637,8 @@
       </c>
     </row>
     <row r="97" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>12</v>
+      <c r="A97" s="21">
+        <v>43070</v>
       </c>
       <c r="B97" s="5">
         <v>2497</v>
@@ -6736,8 +6700,8 @@
       </c>
     </row>
     <row r="98" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>13</v>
+      <c r="A98" s="21">
+        <v>43101</v>
       </c>
       <c r="B98" s="5">
         <v>2525</v>
@@ -6801,8 +6765,8 @@
       </c>
     </row>
     <row r="99" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>14</v>
+      <c r="A99" s="21">
+        <v>43132</v>
       </c>
       <c r="B99" s="5">
         <v>2328</v>
@@ -6866,8 +6830,8 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
+      <c r="A100" s="21">
+        <v>43160</v>
       </c>
       <c r="B100" s="5">
         <v>2661</v>
@@ -6929,8 +6893,8 @@
       </c>
     </row>
     <row r="101" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>4</v>
+      <c r="A101" s="21">
+        <v>43191</v>
       </c>
       <c r="B101" s="5">
         <v>2735</v>
@@ -6994,8 +6958,8 @@
       </c>
     </row>
     <row r="102" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>5</v>
+      <c r="A102" s="21">
+        <v>43221</v>
       </c>
       <c r="B102" s="5">
         <v>2823</v>
@@ -7059,8 +7023,8 @@
       </c>
     </row>
     <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>6</v>
+      <c r="A103" s="21">
+        <v>43252</v>
       </c>
       <c r="B103" s="5">
         <v>2708</v>
@@ -7122,8 +7086,8 @@
       </c>
     </row>
     <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>7</v>
+      <c r="A104" s="21">
+        <v>43282</v>
       </c>
       <c r="B104" s="5">
         <v>2969</v>
@@ -7185,8 +7149,8 @@
       </c>
     </row>
     <row r="105" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>8</v>
+      <c r="A105" s="21">
+        <v>43313</v>
       </c>
       <c r="B105" s="5">
         <v>2785</v>
@@ -7248,8 +7212,8 @@
       </c>
     </row>
     <row r="106" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>9</v>
+      <c r="A106" s="21">
+        <v>43344</v>
       </c>
       <c r="B106" s="5">
         <v>2780</v>
@@ -7311,8 +7275,8 @@
       </c>
     </row>
     <row r="107" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>10</v>
+      <c r="A107" s="21">
+        <v>43374</v>
       </c>
       <c r="B107" s="5">
         <v>2721</v>
@@ -7374,8 +7338,8 @@
       </c>
     </row>
     <row r="108" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>11</v>
+      <c r="A108" s="21">
+        <v>43405</v>
       </c>
       <c r="B108" s="5">
         <v>2703</v>
@@ -7437,8 +7401,8 @@
       </c>
     </row>
     <row r="109" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>12</v>
+      <c r="A109" s="21">
+        <v>43435</v>
       </c>
       <c r="B109" s="5">
         <v>2598</v>

--- a/DB_homicidios.xlsx
+++ b/DB_homicidios.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesusalvarezcastellanos/Desktop/IF/Sexto semestre/Simulación de Procesos Financieros/Proyecto_SimulaciondeProcesosFinancieros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunopimentel/Documents/Iteso/6 Semestre/Simulacion de procesos financieross/Proyecto/Proyecto_SimulaciondeProcesosFinancieros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E5FB95-C277-3241-BA4C-7E2706F1ED0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985A638-5CDA-2A41-A8BC-D569E225AC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -196,6 +206,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,8 +432,8 @@
   </sheetPr>
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A109"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4921,11 +4937,11 @@
       <c r="F70" s="7">
         <v>1</v>
       </c>
-      <c r="G70" s="6">
-        <v>0</v>
-      </c>
-      <c r="H70" s="6">
-        <v>0</v>
+      <c r="G70" s="22">
+        <v>1332</v>
+      </c>
+      <c r="H70" s="22">
+        <v>168</v>
       </c>
       <c r="I70" s="7">
         <v>0</v>
@@ -6649,8 +6665,8 @@
       <c r="D97" s="6">
         <v>357</v>
       </c>
-      <c r="E97" s="6">
-        <v>135</v>
+      <c r="E97" s="23">
+        <v>49</v>
       </c>
       <c r="F97" s="7">
         <v>0</v>
